--- a/Список предприятий.xlsx
+++ b/Список предприятий.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\PycharmProjects\lgzt_registry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipeg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2F6B12-5D93-4F2E-9046-4E4D165135E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{696E3349-8665-4BBE-97F5-682DBA565595}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51BAE97C-881B-44E5-B477-353439A63EF4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$10</definedName>
-  </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>НАИМЕНОВАНИЕ УЧРЕЖДЕНИЯ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Администрация г.о. </t>
   </si>
   <si>
-    <t>Поликлинника Котельниковская городская</t>
-  </si>
-  <si>
     <t xml:space="preserve">МАУКК </t>
   </si>
   <si>
@@ -51,17 +42,44 @@
     <t>Спортшкола «Белка»</t>
   </si>
   <si>
-    <t>Общественная палата городского округа Котельники</t>
-  </si>
-  <si>
-    <t>Штаб гражданских инициатив при главе городского округа Котельники Московской области</t>
+    <t>Депутатский корпус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Школа №2 (два корпуса) </t>
+  </si>
+  <si>
+    <t>Школа №3, Детский сад «Детство»</t>
+  </si>
+  <si>
+    <t>Школа №1 (два корпуса Силикат и Южный), Детский сад «Маргаритка»</t>
+  </si>
+  <si>
+    <t>Предприятия города (крупный и средний бизнес)</t>
+  </si>
+  <si>
+    <t>Торговля, малый бизнес</t>
+  </si>
+  <si>
+    <t>Общественные объединения</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ЖКХ, Благоустройство</t>
+  </si>
+  <si>
+    <t>Прочие</t>
+  </si>
+  <si>
+    <t>Здровоохранение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +89,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -85,6 +97,8 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,21 +138,21 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -154,9 +168,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,7 +208,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -300,7 +314,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -442,80 +456,154 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46F74E6-9DAC-4826-8FAA-5D5392DF23E5}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FECDA51-27C1-479B-846C-321F16623EA2}">
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A10" xr:uid="{E46F74E6-9DAC-4826-8FAA-5D5392DF23E5}"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="3" orientation="landscape" r:id="rId1"/>
+  <sortState ref="B1:B14">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>